--- a/coehd/coehd-faculty.xlsx
+++ b/coehd/coehd-faculty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garza/Development-vpaa/csv-tool/coehd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FB5186-D991-F442-9252-DAE9A52FDF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C74D5DF-886A-0E4A-B9D4-B99CEBB34DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12220" yWindow="500" windowWidth="54180" windowHeight="34200" xr2:uid="{337B42B1-29F0-2947-94CA-0ACA1C1EF81B}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="54180" windowHeight="34200" xr2:uid="{337B42B1-29F0-2947-94CA-0ACA1C1EF81B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,9 +485,6 @@
     <t xml:space="preserve"> https://education.utsa.edu/images/cvs/tafolla-vita-10.pdf</t>
   </si>
   <si>
-    <t>Patricia Sánchez, Ph.D.</t>
-  </si>
-  <si>
     <t>Lynda Cavazos, Ph.D.</t>
   </si>
   <si>
@@ -2180,9 +2177,6 @@
     <t>Race, Ethnicity, Gender, and Sexuality Studies</t>
   </si>
   <si>
-    <t>race-ethnicity-gender-and-sexualilty-studies</t>
-  </si>
-  <si>
     <t>gerald.juhnke@utsa.edu</t>
   </si>
   <si>
@@ -2655,6 +2649,12 @@
   </si>
   <si>
     <t>gutierrez-lourdes</t>
+  </si>
+  <si>
+    <t>race-ethnicity-gender-and-sexuality-studies</t>
+  </si>
+  <si>
+    <t>Patricia Sanchez, Ph.D.</t>
   </si>
 </sst>
 </file>
@@ -2985,7 +2985,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5F3676A-DB2C-C049-8959-3A8D4A76042A}" name="Table1" displayName="Table1" ref="A1:L131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:L131" xr:uid="{F5F3676A-DB2C-C049-8959-3A8D4A76042A}"/>
+  <autoFilter ref="A1:L131" xr:uid="{F5F3676A-DB2C-C049-8959-3A8D4A76042A}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Bicultural-Bilingual Studies"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A116:L131">
+    <sortCondition ref="F1:F131"/>
+  </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{3B657B70-6E12-4847-B85A-83B0CC72A404}" name="headshot" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{3388B5F8-5978-ED46-91DD-CFF13C1A8265}" name="email" dataDxfId="9"/>
@@ -3304,7 +3313,7 @@
   <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3342,7 +3351,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>88</v>
@@ -3351,13 +3360,13 @@
         <v>89</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -3374,13 +3383,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>91</v>
@@ -3391,7 +3400,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>84</v>
       </c>
@@ -3404,13 +3413,13 @@
         <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>91</v>
@@ -3421,7 +3430,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -3438,13 +3447,13 @@
         <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>91</v>
@@ -3455,7 +3464,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>22</v>
@@ -3470,13 +3479,13 @@
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>91</v>
@@ -3487,7 +3496,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -3504,13 +3513,13 @@
         <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>91</v>
@@ -3521,10 +3530,10 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -3534,13 +3543,13 @@
         <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>91</v>
@@ -3551,12 +3560,12 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -3568,13 +3577,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>91</v>
@@ -3585,7 +3594,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -3602,13 +3611,13 @@
         <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>91</v>
@@ -3619,12 +3628,12 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>40</v>
@@ -3636,13 +3645,13 @@
         <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>91</v>
@@ -3653,7 +3662,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -3670,13 +3679,13 @@
         <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>91</v>
@@ -3687,12 +3696,12 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>51</v>
@@ -3704,13 +3713,13 @@
         <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>91</v>
@@ -3721,7 +3730,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -3738,13 +3747,13 @@
         <v>59</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>91</v>
@@ -3755,7 +3764,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
@@ -3772,13 +3781,13 @@
         <v>65</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>91</v>
@@ -3789,7 +3798,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -3806,13 +3815,13 @@
         <v>71</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>91</v>
@@ -3823,12 +3832,12 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>74</v>
@@ -3840,13 +3849,13 @@
         <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>91</v>
@@ -3857,7 +3866,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>78</v>
       </c>
@@ -3874,13 +3883,13 @@
         <v>82</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>91</v>
@@ -3902,25 +3911,25 @@
         <v>138</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -3936,25 +3945,25 @@
         <v>135</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -3970,25 +3979,25 @@
         <v>137</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -4004,25 +4013,25 @@
         <v>140</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -4038,25 +4047,25 @@
         <v>145</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -4072,25 +4081,25 @@
         <v>135</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -4106,25 +4115,25 @@
         <v>141</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -4140,25 +4149,25 @@
         <v>142</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -4174,25 +4183,25 @@
         <v>146</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -4208,25 +4217,25 @@
         <v>147</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H27" t="s">
+        <v>227</v>
+      </c>
+      <c r="I27" t="s">
         <v>228</v>
       </c>
-      <c r="I27" t="s">
-        <v>229</v>
-      </c>
       <c r="J27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -4242,25 +4251,25 @@
         <v>144</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" t="s">
+        <v>178</v>
+      </c>
+      <c r="I28" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" t="s">
         <v>226</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H28" t="s">
-        <v>179</v>
-      </c>
-      <c r="I28" t="s">
-        <v>229</v>
-      </c>
-      <c r="J28" t="s">
-        <v>227</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -4276,25 +4285,25 @@
         <v>134</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>149</v>
+        <v>872</v>
       </c>
       <c r="H29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -4310,25 +4319,25 @@
         <v>136</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -4344,25 +4353,25 @@
         <v>135</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -4378,25 +4387,25 @@
         <v>135</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -4412,25 +4421,25 @@
         <v>135</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -4446,25 +4455,25 @@
         <v>148</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -4480,25 +4489,25 @@
         <v>143</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -4514,25 +4523,25 @@
         <v>139</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -4548,25 +4557,25 @@
         <v>135</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -4582,1441 +4591,1441 @@
         <v>135</v>
       </c>
       <c r="D38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="F38" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="D39" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I39" t="s">
+        <v>342</v>
+      </c>
+      <c r="J39" t="s">
         <v>343</v>
-      </c>
-      <c r="J39" t="s">
-        <v>344</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I40" t="s">
+        <v>342</v>
+      </c>
+      <c r="J40" t="s">
         <v>343</v>
-      </c>
-      <c r="J40" t="s">
-        <v>344</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="D41" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I41" t="s">
+        <v>342</v>
+      </c>
+      <c r="J41" t="s">
         <v>343</v>
-      </c>
-      <c r="J41" t="s">
-        <v>344</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="D42" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I42" t="s">
+        <v>342</v>
+      </c>
+      <c r="J42" t="s">
         <v>343</v>
-      </c>
-      <c r="J42" t="s">
-        <v>344</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I43" t="s">
+        <v>342</v>
+      </c>
+      <c r="J43" t="s">
         <v>343</v>
-      </c>
-      <c r="J43" t="s">
-        <v>344</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="D44" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I44" t="s">
+        <v>342</v>
+      </c>
+      <c r="J44" t="s">
         <v>343</v>
-      </c>
-      <c r="J44" t="s">
-        <v>344</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I45" t="s">
+        <v>342</v>
+      </c>
+      <c r="J45" t="s">
         <v>343</v>
-      </c>
-      <c r="J45" t="s">
-        <v>344</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I46" t="s">
+        <v>342</v>
+      </c>
+      <c r="J46" t="s">
         <v>343</v>
-      </c>
-      <c r="J46" t="s">
-        <v>344</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="D47" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I47" t="s">
+        <v>342</v>
+      </c>
+      <c r="J47" t="s">
         <v>343</v>
-      </c>
-      <c r="J47" t="s">
-        <v>344</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="D48" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I48" t="s">
+        <v>342</v>
+      </c>
+      <c r="J48" t="s">
         <v>343</v>
-      </c>
-      <c r="J48" t="s">
-        <v>344</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="D49" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I49" t="s">
+        <v>342</v>
+      </c>
+      <c r="J49" t="s">
         <v>343</v>
-      </c>
-      <c r="J49" t="s">
-        <v>344</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="D50" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I50" t="s">
+        <v>342</v>
+      </c>
+      <c r="J50" t="s">
         <v>343</v>
-      </c>
-      <c r="J50" t="s">
-        <v>344</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="F51" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I51" t="s">
+        <v>342</v>
+      </c>
+      <c r="J51" t="s">
         <v>343</v>
-      </c>
-      <c r="J51" t="s">
-        <v>344</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="D52" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I52" t="s">
+        <v>342</v>
+      </c>
+      <c r="J52" t="s">
         <v>343</v>
-      </c>
-      <c r="J52" t="s">
-        <v>344</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I53" t="s">
+        <v>342</v>
+      </c>
+      <c r="J53" t="s">
         <v>343</v>
-      </c>
-      <c r="J53" t="s">
-        <v>344</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H54" t="s">
+        <v>341</v>
+      </c>
+      <c r="I54" t="s">
         <v>342</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>343</v>
-      </c>
-      <c r="J54" t="s">
-        <v>344</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I55" t="s">
+        <v>342</v>
+      </c>
+      <c r="J55" t="s">
         <v>343</v>
-      </c>
-      <c r="J55" t="s">
-        <v>344</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H56" t="s">
+        <v>341</v>
+      </c>
+      <c r="I56" t="s">
         <v>342</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>343</v>
-      </c>
-      <c r="J56" t="s">
-        <v>344</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I57" t="s">
+        <v>342</v>
+      </c>
+      <c r="J57" t="s">
         <v>343</v>
-      </c>
-      <c r="J57" t="s">
-        <v>344</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>334</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H58" t="s">
+        <v>341</v>
+      </c>
+      <c r="I58" t="s">
         <v>342</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>343</v>
-      </c>
-      <c r="J58" t="s">
-        <v>344</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="F59" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I59" t="s">
+        <v>342</v>
+      </c>
+      <c r="J59" t="s">
         <v>343</v>
-      </c>
-      <c r="J59" t="s">
-        <v>344</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I60" t="s">
+        <v>342</v>
+      </c>
+      <c r="J60" t="s">
         <v>343</v>
-      </c>
-      <c r="J60" t="s">
-        <v>344</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="D61" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I61" t="s">
+        <v>342</v>
+      </c>
+      <c r="J61" t="s">
         <v>343</v>
-      </c>
-      <c r="J61" t="s">
-        <v>344</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="D62" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I62" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="D63" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I63" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I64" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I65" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I66" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>370</v>
-      </c>
       <c r="D67" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H67" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I67" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I68" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="D69" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H69" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I69" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H70" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I70" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="D71" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I71" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J71" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="D72" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I72" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J72" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H73" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I73" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="D74" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I74" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J74" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="D75" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I75" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>384</v>
-      </c>
       <c r="D76" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I76" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="F77" s="8" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G77" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I77" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J77" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G78" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H78" t="s">
+        <v>413</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="F79" s="8" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G79" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I79" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J79" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="F80" s="8" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G80" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I80" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J80" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>453</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G81" t="s">
         <v>530</v>
@@ -6025,200 +6034,198 @@
         <v>564</v>
       </c>
       <c r="I81" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J81" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>823</v>
       </c>
       <c r="G82" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H82" t="s">
-        <v>565</v>
+        <v>183</v>
       </c>
       <c r="I82" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J82" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>455</v>
-      </c>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
-        <v>729</v>
+        <v>482</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>480</v>
+        <v>135</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>578</v>
+        <v>327</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>824</v>
       </c>
       <c r="G83" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I83" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J83" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>482</v>
+        <v>524</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>580</v>
+        <v>305</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>825</v>
       </c>
       <c r="G84" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H84" t="s">
-        <v>184</v>
+        <v>565</v>
       </c>
       <c r="I84" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J84" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="B85" s="2" t="s">
         <v>483</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>135</v>
+        <v>484</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>328</v>
+        <v>583</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>826</v>
       </c>
       <c r="G85" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H85" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="I85" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J85" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>457</v>
-      </c>
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>525</v>
+        <v>135</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>582</v>
+        <v>15</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>306</v>
+        <v>618</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>827</v>
+        <v>846</v>
       </c>
       <c r="G86" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="H86" t="s">
-        <v>566</v>
+        <v>178</v>
       </c>
       <c r="I86" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J86" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>458</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G87" t="s">
         <v>536</v>
@@ -6227,653 +6234,651 @@
         <v>171</v>
       </c>
       <c r="I87" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J87" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>459</v>
-      </c>
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>486</v>
+        <v>730</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>487</v>
+        <v>135</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>585</v>
+        <v>619</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>586</v>
+        <v>620</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
       <c r="G88" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="H88" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I88" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J88" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="D89" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>588</v>
-      </c>
       <c r="F89" s="8" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I89" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J89" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="D90" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>590</v>
-      </c>
       <c r="F90" s="8" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I90" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J90" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="D91" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>592</v>
-      </c>
       <c r="F91" s="8" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G91" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H91" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I91" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>473</v>
+      </c>
       <c r="B92" s="2" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>135</v>
+        <v>517</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>578</v>
+        <v>221</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>833</v>
+        <v>848</v>
       </c>
       <c r="G92" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="H92" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="I92" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J92" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>463</v>
-      </c>
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
-        <v>730</v>
+        <v>493</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>495</v>
+        <v>135</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="G93" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I93" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J93" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="B94" s="2" t="s">
-        <v>496</v>
+        <v>727</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="G94" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="H94" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I94" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J94" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>498</v>
+        <v>728</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="G95" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I95" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J95" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>465</v>
-      </c>
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>135</v>
+        <v>496</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="G96" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H96" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="I96" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J96" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="G97" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="H97" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I97" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J97" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>135</v>
+        <v>498</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>604</v>
+        <v>597</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>598</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="G98" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H98" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="I98" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J98" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>505</v>
+        <v>135</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>606</v>
+        <v>577</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G99" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H99" t="s">
         <v>171</v>
       </c>
       <c r="I99" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J99" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G100" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I100" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J100" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G101" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H101" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="I101" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J101" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="G102" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H102" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I102" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J102" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>472</v>
-      </c>
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
-        <v>731</v>
+        <v>520</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="G103" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="H103" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I103" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J103" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>513</v>
+        <v>135</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>21</v>
+        <v>627</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="G104" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="H104" t="s">
-        <v>171</v>
+        <v>568</v>
       </c>
       <c r="I104" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J104" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>16</v>
+        <v>607</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G105" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H105" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I105" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J105" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="B106" s="2" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="G106" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H106" t="s">
-        <v>568</v>
+        <v>183</v>
       </c>
       <c r="I106" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J106" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
         <v>526</v>
@@ -6882,226 +6887,230 @@
         <v>135</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>15</v>
+        <v>628</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>619</v>
+        <v>48</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="G107" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H107" t="s">
-        <v>179</v>
+        <v>568</v>
       </c>
       <c r="I107" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J107" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>732</v>
+        <v>527</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="G108" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H108" t="s">
-        <v>179</v>
+        <v>568</v>
       </c>
       <c r="I108" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J108" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>222</v>
+        <v>611</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="G109" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="H109" t="s">
         <v>171</v>
       </c>
       <c r="I109" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J109" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>520</v>
+        <v>476</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>623</v>
+        <v>572</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>624</v>
+        <v>573</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>851</v>
+        <v>820</v>
       </c>
       <c r="G110" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="H110" t="s">
-        <v>179</v>
+        <v>563</v>
       </c>
       <c r="I110" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J110" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="B111" s="2" t="s">
-        <v>521</v>
+        <v>729</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="G111" t="s">
+        <v>551</v>
+      </c>
+      <c r="H111" t="s">
+        <v>566</v>
+      </c>
+      <c r="I111" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="H111" t="s">
-        <v>569</v>
-      </c>
-      <c r="I111" s="2" t="s">
+      <c r="J111" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>135</v>
+        <v>512</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>628</v>
+        <v>21</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="G112" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="H112" t="s">
-        <v>569</v>
+        <v>170</v>
       </c>
       <c r="I112" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J112" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="2"/>
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>472</v>
+      </c>
       <c r="B113" s="2" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>135</v>
+        <v>514</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="G113" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="H113" t="s">
-        <v>569</v>
+        <v>182</v>
       </c>
       <c r="I113" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J113" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
         <v>528</v>
@@ -7110,569 +7119,569 @@
         <v>135</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G114" t="s">
         <v>562</v>
       </c>
       <c r="H114" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I114" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J114" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="G115" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="H115" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I115" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J115" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>650</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="C116" s="2"/>
       <c r="D116" s="2" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G116" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="H116" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>714</v>
+        <v>871</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>652</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
       <c r="D117" s="2" t="s">
-        <v>683</v>
+        <v>704</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>684</v>
+        <v>705</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
       <c r="G117" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="H117" t="s">
-        <v>172</v>
+        <v>679</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>714</v>
+        <v>871</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="G118" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="H118" t="s">
-        <v>176</v>
+        <v>678</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>714</v>
+        <v>871</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>654</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="C119" s="2"/>
       <c r="D119" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G119" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H119" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>714</v>
+        <v>871</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B120" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>656</v>
+      </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G120" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H120" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>714</v>
+        <v>871</v>
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>655</v>
+        <v>733</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2" t="s">
-        <v>691</v>
+        <v>85</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="G121" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="H121" t="s">
-        <v>171</v>
+        <v>679</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>714</v>
+        <v>871</v>
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="C122" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>649</v>
+      </c>
       <c r="D122" s="2" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="G122" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="H122" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>714</v>
+        <v>871</v>
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="G123" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="H123" t="s">
-        <v>172</v>
+        <v>679</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>714</v>
+        <v>871</v>
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>659</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="G124" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="H124" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>714</v>
+        <v>871</v>
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>661</v>
-      </c>
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
       <c r="D125" s="2" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="G125" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="H125" t="s">
-        <v>171</v>
+        <v>679</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>714</v>
+        <v>871</v>
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="C126" s="2"/>
+        <v>650</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>651</v>
+      </c>
       <c r="D126" s="2" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="G126" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="H126" t="s">
-        <v>679</v>
+        <v>171</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>714</v>
+        <v>871</v>
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
+        <v>641</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>658</v>
+      </c>
       <c r="D127" s="4" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="G127" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="H127" t="s">
-        <v>679</v>
+        <v>171</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>714</v>
+        <v>871</v>
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>653</v>
+      </c>
       <c r="D128" s="2" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="G128" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="H128" t="s">
-        <v>680</v>
+        <v>170</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>714</v>
+        <v>871</v>
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="C129" s="2"/>
+        <v>659</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>660</v>
+      </c>
       <c r="D129" s="2" t="s">
-        <v>85</v>
+        <v>698</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="G129" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H129" t="s">
-        <v>680</v>
+        <v>170</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>714</v>
+        <v>871</v>
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>662</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F130" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="G130" t="s">
+        <v>673</v>
+      </c>
+      <c r="H130" t="s">
+        <v>678</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="J130" s="2" t="s">
         <v>871</v>
-      </c>
-      <c r="G130" t="s">
-        <v>677</v>
-      </c>
-      <c r="H130" t="s">
-        <v>680</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>714</v>
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" s="2"/>
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>637</v>
+      </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2" t="s">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="G131" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="H131" t="s">
-        <v>680</v>
+        <v>175</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>714</v>
+        <v>871</v>
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
@@ -7680,7 +7689,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H120" r:id="rId1" display="https://education.utsa.edu/images/CVs/Harris_CV_2021.doc" xr:uid="{72210EF1-C0BC-014C-8F2C-1D5FAB444E4B}"/>
+    <hyperlink ref="H131" r:id="rId1" display="https://education.utsa.edu/images/CVs/Harris_CV_2021.doc" xr:uid="{72210EF1-C0BC-014C-8F2C-1D5FAB444E4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
